--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\webclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E31BC4-3888-485C-BF78-D73670E1B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0BB266-FAB5-4875-B7E0-E94FAD7E2E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
+    <workbookView xWindow="-109" yWindow="85" windowWidth="17425" windowHeight="8954" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>语文</t>
   </si>
@@ -54,9 +54,6 @@
     <t>物理</t>
   </si>
   <si>
-    <t>353-8924-2489</t>
-  </si>
-  <si>
     <t>生物</t>
   </si>
   <si>
@@ -142,6 +139,20 @@
   </si>
   <si>
     <t>备选会议号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰区数据已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>963-9053-5934</t>
+  </si>
+  <si>
+    <t>353-249-6289</t>
+  </si>
+  <si>
+    <t>数据未更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +194,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,18 +238,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,9 +282,37 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -242,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,22 +334,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,143 +684,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE39A7F4-3115-4F37-86A3-9E046F61CF94}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="327" zoomScaleNormal="327" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.55" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\webclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0BB266-FAB5-4875-B7E0-E94FAD7E2E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5355DD3D-99E3-42C8-8CFD-8A8D392360F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="85" windowWidth="17425" windowHeight="8954" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
+    <workbookView xWindow="1876" yWindow="1876" windowWidth="17425" windowHeight="8954" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,11 +149,11 @@
     <t>963-9053-5934</t>
   </si>
   <si>
-    <t>353-249-6289</t>
-  </si>
-  <si>
     <t>数据未更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>758-3366-3088</t>
   </si>
 </sst>
 </file>
@@ -337,38 +337,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE39A7F4-3115-4F37-86A3-9E046F61CF94}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -698,14 +698,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.55" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -714,10 +714,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -726,10 +726,10 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -738,8 +738,8 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -748,8 +748,8 @@
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -758,8 +758,8 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -768,10 +768,10 @@
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -780,8 +780,8 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -790,58 +790,58 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\webclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5355DD3D-99E3-42C8-8CFD-8A8D392360F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D1852-B7BF-4558-BE45-F237974D28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1876" yWindow="1876" windowWidth="17425" windowHeight="8954" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>语文</t>
   </si>
@@ -154,6 +154,13 @@
   </si>
   <si>
     <t>758-3366-3088</t>
+  </si>
+  <si>
+    <t>379-793-0002</t>
+  </si>
+  <si>
+    <t>当前可用会议号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -229,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +261,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -321,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,9 +363,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -369,6 +385,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE39A7F4-3115-4F37-86A3-9E046F61CF94}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -698,14 +723,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.55" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -714,10 +739,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -787,17 +812,19 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -811,7 +838,7 @@
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -820,16 +847,16 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -840,8 +867,18 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\webclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D1852-B7BF-4558-BE45-F237974D28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA10EEF6-F77D-447B-92F7-EBD3985EC1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
   </bookViews>
@@ -377,6 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,15 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +712,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -723,14 +723,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.55" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -739,10 +739,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -812,10 +812,10 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4"/>
@@ -824,7 +824,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -877,7 +877,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\webclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA10EEF6-F77D-447B-92F7-EBD3985EC1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B6DB4-9C26-4811-9390-65143FADBA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="17425" windowHeight="8955" xr2:uid="{7B7695A3-2EC3-4ED9-8F6B-1071D9C35647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,12 +263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,12 +372,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -394,6 +382,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +703,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -723,14 +714,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.55" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -739,10 +730,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -812,11 +803,11 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -877,7 +868,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>34</v>
       </c>
     </row>
